--- a/migforecasting/clustering/soc-eco extremums.xlsx
+++ b/migforecasting/clustering/soc-eco extremums.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Ленский муниципальный район</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>Абзелиловский муниципальный район</t>
+  </si>
+  <si>
+    <t>Удомельский муниципальный район</t>
+  </si>
+  <si>
+    <t>город Якутия</t>
+  </si>
+  <si>
+    <t>Павловский муниципальный район</t>
   </si>
 </sst>
 </file>
@@ -445,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,6 +1023,192 @@
         <v>4.0844957725092501E-2</v>
       </c>
     </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>28656000</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-277</v>
+      </c>
+      <c r="E10" s="1">
+        <v>39542</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.63519443408666965</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.74687879058806805</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.298266603612863</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.26725935926182642</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.2467678532431285</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.48397539656846872</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.30549700080964831</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.19180638531777161</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.109312215536201</v>
+      </c>
+      <c r="O10" s="1">
+        <v>2.5734013445365831E-2</v>
+      </c>
+      <c r="P10" s="1">
+        <v>5.8683110695470192E-2</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1.609536925903458E-2</v>
+      </c>
+      <c r="R10" s="1">
+        <v>9.297455869708178E-2</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0.45728316909694039</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1.4967575901593739</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>98701000</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1530</v>
+      </c>
+      <c r="E11" s="1">
+        <v>335525</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.49664424720120298</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.142028413160443</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.62360161146702875</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.77327695424107346</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.43573933911709162</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.34315312398834569</v>
+      </c>
+      <c r="L11" s="1">
+        <v>4.6137391014979059E-2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.20158855524923711</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1.7791970698830369E-2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>3.3809022608506738E-3</v>
+      </c>
+      <c r="P11" s="1">
+        <v>4.4134006235306049E-2</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1.475127833455502E-2</v>
+      </c>
+      <c r="R11" s="1">
+        <v>5.7133745622531977E-2</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0.39343939816927731</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0.37837084522941178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1630000</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D12" s="1">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1">
+        <v>13275</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.36054537118095858</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.38785038787440962</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.80613921811407796</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.35663057440145712</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.26113191932990298</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.41599223049530593</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.24266088951191689</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1.3018835161183171</v>
+      </c>
+      <c r="N12" s="1">
+        <v>9.1430995293473677E-2</v>
+      </c>
+      <c r="O12" s="1">
+        <v>3.6958634025637829</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.245440314635053</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.344157798386378</v>
+      </c>
+      <c r="R12" s="1">
+        <v>7.9126177024482283E-2</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0.36419268617994649</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0.42192284142394743</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/migforecasting/clustering/soc-eco extremums.xlsx
+++ b/migforecasting/clustering/soc-eco extremums.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Ленский муниципальный район</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Павловский муниципальный район</t>
+  </si>
+  <si>
+    <t>город Махачкала</t>
   </si>
 </sst>
 </file>
@@ -454,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,6 +1212,68 @@
         <v>0.42192284142394743</v>
       </c>
     </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>82701000</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-2905</v>
+      </c>
+      <c r="E13" s="1">
+        <v>737031</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.28523727683722322</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.49267258980285938</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.13826601125829449</v>
+      </c>
+      <c r="I13" s="1">
+        <v>4.8449749452029539E-2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3.8586413033112117E-2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.32211071544189063</v>
+      </c>
+      <c r="L13" s="1">
+        <v>5.2690920877498229E-2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.41246297146732042</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1.1762894083742389E-2</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1.549438861750699E-3</v>
+      </c>
+      <c r="P13" s="1">
+        <v>7.3138518990842078E-3</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1.5874787004907509E-3</v>
+      </c>
+      <c r="R13" s="1">
+        <v>2.9928727556914229E-2</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0.19246849994449899</v>
+      </c>
+      <c r="T13" s="1">
+        <v>5.3817661600067943E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/migforecasting/clustering/soc-eco extremums.xlsx
+++ b/migforecasting/clustering/soc-eco extremums.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Ленский муниципальный район</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>город Махачкала</t>
+  </si>
+  <si>
+    <t>Кирово-Чепецкий муниципальный район</t>
+  </si>
+  <si>
+    <t>город Курск</t>
   </si>
 </sst>
 </file>
@@ -457,15 +463,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -1037,10 +1044,10 @@
         <v>2013</v>
       </c>
       <c r="D10" s="1">
-        <v>-277</v>
+        <v>-0.27480158730158732</v>
       </c>
       <c r="E10" s="1">
-        <v>39542</v>
+        <v>0.26407987444485259</v>
       </c>
       <c r="F10" s="1">
         <v>0.63519443408666965</v>
@@ -1099,10 +1106,10 @@
         <v>2019</v>
       </c>
       <c r="D11" s="1">
-        <v>1530</v>
+        <v>1.517857142857143</v>
       </c>
       <c r="E11" s="1">
-        <v>335525</v>
+        <v>2.240792065983237</v>
       </c>
       <c r="F11" s="1">
         <v>0.49664424720120298</v>
@@ -1161,10 +1168,10 @@
         <v>2022</v>
       </c>
       <c r="D12" s="1">
-        <v>20</v>
+        <v>1.984126984126984E-2</v>
       </c>
       <c r="E12" s="1">
-        <v>13275</v>
+        <v>8.865662670718269E-2</v>
       </c>
       <c r="F12" s="1">
         <v>0.36054537118095858</v>
@@ -1223,10 +1230,10 @@
         <v>2021</v>
       </c>
       <c r="D13" s="1">
-        <v>-2905</v>
+        <v>-2.8819444444444451</v>
       </c>
       <c r="E13" s="1">
-        <v>737031</v>
+        <v>4.9222359501786492</v>
       </c>
       <c r="F13" s="1">
         <v>0.28523727683722322</v>
@@ -1272,6 +1279,130 @@
       </c>
       <c r="T13" s="1">
         <v>5.3817661600067943E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>33618000</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-3.8690476190476102E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.1462049620997094</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.28518300304812388</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.42789322715907868</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.19716259127607461</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.29107408981249022</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.16797025539312729</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.49854321786986078</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.24524356753385379</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.1192684878171988</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.55442465856059853</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.16866518481397599</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.77618153965036052</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.2268821755342133</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0.26389548693586701</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0.370466835661934</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0.15159421916886431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>38701000</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D15">
+        <v>-1.881944444444444</v>
+      </c>
+      <c r="E15">
+        <v>2.987858550105186</v>
+      </c>
+      <c r="F15">
+        <v>0.47979443813254291</v>
+      </c>
+      <c r="G15">
+        <v>0.5195607176181013</v>
+      </c>
+      <c r="H15">
+        <v>0.48083072800215049</v>
+      </c>
+      <c r="I15">
+        <v>0.31091662978504381</v>
+      </c>
+      <c r="J15">
+        <v>0.82241975252209554</v>
+      </c>
+      <c r="K15">
+        <v>0.49530592424732922</v>
+      </c>
+      <c r="L15">
+        <v>0.1120047602728976</v>
+      </c>
+      <c r="M15">
+        <v>0.1673034853756703</v>
+      </c>
+      <c r="N15">
+        <v>2.0790190945791851E-2</v>
+      </c>
+      <c r="O15">
+        <v>5.2640678761630853E-4</v>
+      </c>
+      <c r="P15">
+        <v>2.7461335397947258E-2</v>
+      </c>
+      <c r="Q15">
+        <v>3.0575625266523561E-3</v>
+      </c>
+      <c r="R15">
+        <v>0.1702195191187946</v>
+      </c>
+      <c r="S15">
+        <v>0.28618565895428971</v>
+      </c>
+      <c r="T15">
+        <v>0.27986718257288218</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/clustering/soc-eco extremums.xlsx
+++ b/migforecasting/clustering/soc-eco extremums.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Ленский муниципальный район</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>город Курск</t>
+  </si>
+  <si>
+    <t>Новохопёрский муниципальный район</t>
   </si>
 </sst>
 </file>
@@ -463,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,6 +1408,68 @@
         <v>0.27986718257288218</v>
       </c>
     </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>20627000</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-4.6626984126984128E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.2693625404881958</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.2317968852233199</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.40254362577051228</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.18903379741537291</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.11904849089721189</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4.5216778652228687E-2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.44027193266429271</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.2773200698172692</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.16030042542889339</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.12795724343120149</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.1176931894296826</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.18924045602780359</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.19742202970179751</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0.2083455235167237</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0.1814977900221531</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0.12292349274353161</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/migforecasting/clustering/soc-eco extremums.xlsx
+++ b/migforecasting/clustering/soc-eco extremums.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Ленский муниципальный район</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Новохопёрский муниципальный район</t>
+  </si>
+  <si>
+    <t>Котлас</t>
   </si>
 </sst>
 </file>
@@ -466,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,6 +1473,68 @@
         <v>0.12292349274353161</v>
       </c>
     </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>11710000</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.29761904761904762</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.49603633085117038</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.4803921914504613</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.67446195458032387</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.81617276227703461</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.70416771217697205</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.56779397983662483</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.43217869860796371</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.18432592912931001</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.1690738406599411</v>
+      </c>
+      <c r="N17" s="1">
+        <v>2.9681448438395701E-2</v>
+      </c>
+      <c r="O17" s="1">
+        <v>6.8280893655534139E-5</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1.3062384580036E-2</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>6.0770196999548002E-3</v>
+      </c>
+      <c r="R17" s="1">
+        <v>6.3640035544066498E-2</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0.56576495966639262</v>
+      </c>
+      <c r="T17" s="1">
+        <v>9.4227873614833799E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/migforecasting/clustering/soc-eco extremums.xlsx
+++ b/migforecasting/clustering/soc-eco extremums.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Ленский муниципальный район</t>
   </si>
@@ -126,7 +126,10 @@
     <t>Новохопёрский муниципальный район</t>
   </si>
   <si>
-    <t>Котлас</t>
+    <t xml:space="preserve">Лаишевский муниципальный район </t>
+  </si>
+  <si>
+    <t>город Котлас</t>
   </si>
 </sst>
 </file>
@@ -469,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,7 +1481,7 @@
         <v>11710000</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1">
         <v>2019</v>
@@ -1533,6 +1536,68 @@
       </c>
       <c r="T17" s="1">
         <v>9.4227873614833799E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>92634000</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3.549603174603174</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.31671285938491328</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.67525595756139944</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.78245818184798022</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.29197724636653227</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.26613632168688722</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.44619244393439622</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.61670443509226291</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.33020286625299722</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.1389564476656282</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.1488110983657692</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1.8713679303629879E-2</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.55618425418864292</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0.33667865273731812</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0.23257069354532661</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0.44362833249958911</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1.0587008965338141</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/clustering/soc-eco extremums.xlsx
+++ b/migforecasting/clustering/soc-eco extremums.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Ленский муниципальный район</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>город Котлас</t>
+  </si>
+  <si>
+    <t>город-курорт Анапа</t>
+  </si>
+  <si>
+    <t>город-курорт Геленджик</t>
   </si>
 </sst>
 </file>
@@ -472,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
@@ -1600,6 +1606,130 @@
         <v>1.0587008965338141</v>
       </c>
     </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>3703000</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.749007936507937</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.421437873576652</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.26429432319309099</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.48113729915185383</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.35689377233967179</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1.3045617637456459</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.85349502337851924</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.62641631595985758</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.19801656001269319</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.1659048139950032</v>
+      </c>
+      <c r="N19" s="1">
+        <v>5.6246756347337092E-2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>4.6299740287124642E-2</v>
+      </c>
+      <c r="P19" s="1">
+        <v>8.4231657304698185E-2</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>3.9654239413479959E-2</v>
+      </c>
+      <c r="R19" s="1">
+        <v>5.1819450382683742E-2</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0.31759183029793209</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0.2386452468783129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>3708000</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-4.265873015873016E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.76834407453167264</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.32300945528313751</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.52922955069295663</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.68402772370909792</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2.82202011720989</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1.0403368716792889</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.69116218841048882</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.23877624403126041</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.66356146232570201</v>
+      </c>
+      <c r="N20" s="1">
+        <v>4.296398496954567E-2</v>
+      </c>
+      <c r="O20" s="1">
+        <v>6.1342243182431729E-3</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1.2013378495212151E-2</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>8.8894538935417808E-3</v>
+      </c>
+      <c r="R20" s="1">
+        <v>5.7063138863778722E-2</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0.3936003802977765</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0.13065006111681071</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/migforecasting/clustering/soc-eco extremums.xlsx
+++ b/migforecasting/clustering/soc-eco extremums.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Ленский муниципальный район</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>город-курорт Геленджик</t>
+  </si>
+  <si>
+    <t>Ангарский</t>
   </si>
 </sst>
 </file>
@@ -478,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1730,6 +1733,68 @@
         <v>0.13065006111681071</v>
       </c>
     </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>25703000</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-0.1924603174603175</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.582208568470965</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.44572036023971628</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.71987124313159401</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.53457260648550653</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.38583765831023947</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.41388166961521788</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.38361929426999031</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.15259001660970239</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.48072894527230958</v>
+      </c>
+      <c r="N21" s="1">
+        <v>2.4690665053992481E-2</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1.977663383487622E-3</v>
+      </c>
+      <c r="P21" s="1">
+        <v>5.9456628855640528E-2</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>1.9044478153582001E-2</v>
+      </c>
+      <c r="R21" s="1">
+        <v>1.995171202809486E-2</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0.45189827483450068</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0.34752365837430033</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/migforecasting/clustering/soc-eco extremums.xlsx
+++ b/migforecasting/clustering/soc-eco extremums.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Ленский муниципальный район</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Ангарский</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чойский муниципальный район </t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
@@ -1795,6 +1798,68 @@
         <v>0.34752365837430033</v>
       </c>
     </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>84645000</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-0.13492063492063491</v>
+      </c>
+      <c r="E22" s="1">
+        <v>5.5531438875346437E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.34933223314617218</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.42370510470138839</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.37399784084144988</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.20103175623387251</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.41700794427406851</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.32049206863062479</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.19370555070779899</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.1046713062855934</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.23519158446383381</v>
+      </c>
+      <c r="O22" s="1">
+        <v>6.5909613799584377E-2</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.11436281212698141</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>5.5137836962902788E-2</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0.31581479254359662</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0.58127579720865963</v>
+      </c>
+      <c r="T22" s="1">
+        <v>3.6359010741574729E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/migforecasting/clustering/soc-eco extremums.xlsx
+++ b/migforecasting/clustering/soc-eco extremums.xlsx
@@ -487,7 +487,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,498 +746,498 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>56613000</v>
+        <v>1630000</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D5" s="1">
-        <v>-0.3968253968253968</v>
+        <v>1.984126984126984E-2</v>
       </c>
       <c r="E5" s="1">
-        <v>0.32431295288342737</v>
+        <v>8.865662670718269E-2</v>
       </c>
       <c r="F5" s="1">
-        <v>0.26062151090519131</v>
+        <v>0.36054537118095858</v>
       </c>
       <c r="G5" s="1">
-        <v>0.46359301973827349</v>
+        <v>0.38785038787440962</v>
       </c>
       <c r="H5" s="1">
-        <v>0.14542821703667189</v>
+        <v>0.80613921811407796</v>
       </c>
       <c r="I5" s="1">
-        <v>0.155246673584263</v>
+        <v>0.35663057440145712</v>
       </c>
       <c r="J5" s="1">
-        <v>0.2523868777139297</v>
+        <v>0.26113191932990298</v>
       </c>
       <c r="K5" s="1">
-        <v>0.48786014891550661</v>
+        <v>0.41599223049530593</v>
       </c>
       <c r="L5" s="1">
-        <v>0.19347884754822739</v>
+        <v>0.24266088951191689</v>
       </c>
       <c r="M5" s="1">
-        <v>0.3098058445593595</v>
+        <v>1.3018835161183171</v>
       </c>
       <c r="N5" s="1">
-        <v>0.14746615862262069</v>
+        <v>9.1430995293473677E-2</v>
       </c>
       <c r="O5" s="1">
-        <v>1.35831496641689E-2</v>
+        <v>3.6958634025637829</v>
       </c>
       <c r="P5" s="1">
-        <v>0.38473541385345422</v>
+        <v>0.245440314635053</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.48857700447253288</v>
+        <v>0.344157798386378</v>
       </c>
       <c r="R5" s="1">
-        <v>0.1027450011325961</v>
+        <v>7.9126177024482283E-2</v>
       </c>
       <c r="S5" s="1">
-        <v>0.32436042717610458</v>
+        <v>0.36419268617994649</v>
       </c>
       <c r="T5" s="1">
-        <v>0.25959060622051888</v>
+        <v>0.42192284142394743</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>63637000</v>
+        <v>33618000</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D6" s="1">
-        <v>-0.13492063492063491</v>
+        <v>-3.8690476190476102E-2</v>
       </c>
       <c r="E6" s="1">
-        <v>0.39978628911076231</v>
+        <v>0.1462049620997094</v>
       </c>
       <c r="F6" s="1">
-        <v>0.33202011027348011</v>
+        <v>0.28518300304812388</v>
       </c>
       <c r="G6" s="1">
-        <v>0.38561508738124189</v>
+        <v>0.42789322715907868</v>
       </c>
       <c r="H6" s="1">
-        <v>0.23944767110490989</v>
+        <v>0.19716259127607461</v>
       </c>
       <c r="I6" s="1">
-        <v>0.22301618926783631</v>
+        <v>0.29107408981249022</v>
       </c>
       <c r="J6" s="1">
-        <v>0.16892140078584161</v>
+        <v>0.16797025539312729</v>
       </c>
       <c r="K6" s="1">
-        <v>0.37876335383619292</v>
+        <v>0.49854321786986078</v>
       </c>
       <c r="L6" s="1">
-        <v>0.15844788879083541</v>
+        <v>0.24524356753385379</v>
       </c>
       <c r="M6" s="1">
-        <v>0.3094759490946824</v>
+        <v>0.1192684878171988</v>
       </c>
       <c r="N6" s="1">
-        <v>0.13381989663956581</v>
+        <v>0.55442465856059853</v>
       </c>
       <c r="O6" s="1">
-        <v>5.7754175753794303E-2</v>
+        <v>0.16866518481397599</v>
       </c>
       <c r="P6" s="1">
-        <v>0.23868080840332129</v>
+        <v>0.77618153965036052</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.1744893828727124</v>
+        <v>0.2268821755342133</v>
       </c>
       <c r="R6" s="1">
-        <v>0.18863051685543411</v>
+        <v>0.26389548693586701</v>
       </c>
       <c r="S6" s="1">
-        <v>0.36294184091124349</v>
+        <v>0.370466835661934</v>
       </c>
       <c r="T6" s="1">
-        <v>5.5079436680695801E-2</v>
+        <v>0.15159421916886431</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>75633000</v>
+        <v>11710000</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D7" s="1">
-        <v>-0.31150793650793651</v>
+        <v>0.29761904761904762</v>
       </c>
       <c r="E7" s="1">
-        <v>0.3825491702006879</v>
+        <v>0.49603633085117038</v>
       </c>
       <c r="F7" s="1">
-        <v>0.28015944035938278</v>
+        <v>0.4803921914504613</v>
       </c>
       <c r="G7" s="1">
-        <v>0.40180769995234072</v>
+        <v>0.67446195458032387</v>
       </c>
       <c r="H7" s="1">
-        <v>0.4575405272755369</v>
+        <v>0.81617276227703461</v>
       </c>
       <c r="I7" s="1">
-        <v>0.21073774666243639</v>
+        <v>0.70416771217697205</v>
       </c>
       <c r="J7" s="1">
-        <v>0.35084861558877012</v>
+        <v>0.56779397983662483</v>
       </c>
       <c r="K7" s="1">
-        <v>0.4723211395273551</v>
+        <v>0.43217869860796371</v>
       </c>
       <c r="L7" s="1">
-        <v>0.2671267211516159</v>
+        <v>0.18432592912931001</v>
       </c>
       <c r="M7" s="1">
-        <v>0.3429559591158961</v>
+        <v>0.1690738406599411</v>
       </c>
       <c r="N7" s="1">
-        <v>5.1957121327719298E-2</v>
+        <v>2.9681448438395701E-2</v>
       </c>
       <c r="O7" s="1">
-        <v>7.3873164228980999E-3</v>
+        <v>6.8280893655534139E-5</v>
       </c>
       <c r="P7" s="1">
-        <v>5.6472643123450399E-2</v>
+        <v>1.3062384580036E-2</v>
       </c>
       <c r="Q7" s="1">
-        <v>7.6370277770318002E-3</v>
+        <v>6.0770196999548002E-3</v>
       </c>
       <c r="R7" s="1">
-        <v>7.7935091915294699E-2</v>
+        <v>6.3640035544066498E-2</v>
       </c>
       <c r="S7" s="1">
-        <v>0.40469107538365412</v>
+        <v>0.56576495966639262</v>
       </c>
       <c r="T7" s="1">
-        <v>0.17483003594661409</v>
+        <v>9.4227873614833799E-2</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>80631000</v>
+        <v>56613000</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D8" s="1">
-        <v>-0.1507936507936507</v>
+        <v>-0.3968253968253968</v>
       </c>
       <c r="E8" s="1">
-        <v>0.57394062844358362</v>
+        <v>0.32431295288342737</v>
       </c>
       <c r="F8" s="1">
-        <v>0.31057474057497708</v>
+        <v>0.26062151090519131</v>
       </c>
       <c r="G8" s="1">
-        <v>0.50927957290253145</v>
+        <v>0.46359301973827349</v>
       </c>
       <c r="H8" s="1">
-        <v>0.43551755150690291</v>
+        <v>0.14542821703667189</v>
       </c>
       <c r="I8" s="1">
-        <v>0.2063869466118764</v>
+        <v>0.155246673584263</v>
       </c>
       <c r="J8" s="1">
-        <v>0.2709133120248578</v>
+        <v>0.2523868777139297</v>
       </c>
       <c r="K8" s="1">
-        <v>0.46455163483327938</v>
+        <v>0.48786014891550661</v>
       </c>
       <c r="L8" s="1">
-        <v>0.58516431527275814</v>
+        <v>0.19347884754822739</v>
       </c>
       <c r="M8" s="1">
-        <v>0.31973769185119671</v>
+        <v>0.3098058445593595</v>
       </c>
       <c r="N8" s="1">
-        <v>0.1307274448051399</v>
+        <v>0.14746615862262069</v>
       </c>
       <c r="O8" s="1">
-        <v>6.0725944418234201E-2</v>
+        <v>1.35831496641689E-2</v>
       </c>
       <c r="P8" s="1">
-        <v>0.1341752298278811</v>
+        <v>0.38473541385345422</v>
       </c>
       <c r="Q8" s="1">
-        <v>5.4254402987072903E-2</v>
+        <v>0.48857700447253288</v>
       </c>
       <c r="R8" s="1">
-        <v>0.19556196837291559</v>
+        <v>0.1027450011325961</v>
       </c>
       <c r="S8" s="1">
-        <v>0.47013233777279528</v>
+        <v>0.32436042717610458</v>
       </c>
       <c r="T8" s="1">
-        <v>0.18636201146791381</v>
+        <v>0.25959060622051888</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>80601000</v>
+        <v>63637000</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D9" s="1">
-        <v>-0.4464285714285714</v>
+        <v>-0.13492063492063491</v>
       </c>
       <c r="E9" s="1">
-        <v>0.2964303603032023</v>
+        <v>0.39978628911076231</v>
       </c>
       <c r="F9" s="1">
-        <v>0.2290683390097184</v>
+        <v>0.33202011027348011</v>
       </c>
       <c r="G9" s="1">
-        <v>0.44951550597296558</v>
+        <v>0.38561508738124189</v>
       </c>
       <c r="H9" s="1">
-        <v>0.23276702096929239</v>
+        <v>0.23944767110490989</v>
       </c>
       <c r="I9" s="1">
-        <v>0.38721610165574322</v>
+        <v>0.22301618926783631</v>
       </c>
       <c r="J9" s="1">
-        <v>0.19631947243933581</v>
+        <v>0.16892140078584161</v>
       </c>
       <c r="K9" s="1">
-        <v>0.48397539656846872</v>
+        <v>0.37876335383619292</v>
       </c>
       <c r="L9" s="1">
-        <v>0.34070029532444179</v>
+        <v>0.15844788879083541</v>
       </c>
       <c r="M9" s="1">
-        <v>0.29132596128615013</v>
+        <v>0.3094759490946824</v>
       </c>
       <c r="N9" s="1">
-        <v>0.1754839847183314</v>
+        <v>0.13381989663956581</v>
       </c>
       <c r="O9" s="1">
-        <v>0.1512490155549866</v>
+        <v>5.7754175753794303E-2</v>
       </c>
       <c r="P9" s="1">
-        <v>0.10072000711981779</v>
+        <v>0.23868080840332129</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.13577240605278529</v>
+        <v>0.1744893828727124</v>
       </c>
       <c r="R9" s="1">
-        <v>0.42597215338169692</v>
+        <v>0.18863051685543411</v>
       </c>
       <c r="S9" s="1">
-        <v>0.38781986661702128</v>
+        <v>0.36294184091124349</v>
       </c>
       <c r="T9" s="1">
-        <v>4.0844957725092501E-2</v>
+        <v>5.5079436680695801E-2</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>28656000</v>
+        <v>75633000</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1">
-        <v>2013</v>
+        <v>2022</v>
       </c>
       <c r="D10" s="1">
-        <v>-0.27480158730158732</v>
+        <v>-0.31150793650793651</v>
       </c>
       <c r="E10" s="1">
-        <v>0.26407987444485259</v>
+        <v>0.3825491702006879</v>
       </c>
       <c r="F10" s="1">
-        <v>0.63519443408666965</v>
+        <v>0.28015944035938278</v>
       </c>
       <c r="G10" s="1">
-        <v>0.74687879058806805</v>
+        <v>0.40180769995234072</v>
       </c>
       <c r="H10" s="1">
-        <v>0.298266603612863</v>
+        <v>0.4575405272755369</v>
       </c>
       <c r="I10" s="1">
-        <v>0.26725935926182642</v>
+        <v>0.21073774666243639</v>
       </c>
       <c r="J10" s="1">
-        <v>0.2467678532431285</v>
+        <v>0.35084861558877012</v>
       </c>
       <c r="K10" s="1">
-        <v>0.48397539656846872</v>
+        <v>0.4723211395273551</v>
       </c>
       <c r="L10" s="1">
-        <v>0.30549700080964831</v>
+        <v>0.2671267211516159</v>
       </c>
       <c r="M10" s="1">
-        <v>0.19180638531777161</v>
+        <v>0.3429559591158961</v>
       </c>
       <c r="N10" s="1">
-        <v>0.109312215536201</v>
+        <v>5.1957121327719298E-2</v>
       </c>
       <c r="O10" s="1">
-        <v>2.5734013445365831E-2</v>
+        <v>7.3873164228980999E-3</v>
       </c>
       <c r="P10" s="1">
-        <v>5.8683110695470192E-2</v>
+        <v>5.6472643123450399E-2</v>
       </c>
       <c r="Q10" s="1">
-        <v>1.609536925903458E-2</v>
+        <v>7.6370277770318002E-3</v>
       </c>
       <c r="R10" s="1">
-        <v>9.297455869708178E-2</v>
+        <v>7.7935091915294699E-2</v>
       </c>
       <c r="S10" s="1">
-        <v>0.45728316909694039</v>
+        <v>0.40469107538365412</v>
       </c>
       <c r="T10" s="1">
-        <v>1.4967575901593739</v>
+        <v>0.17483003594661409</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>98701000</v>
+        <v>28656000</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="D11" s="1">
-        <v>1.517857142857143</v>
+        <v>-0.27480158730158732</v>
       </c>
       <c r="E11" s="1">
-        <v>2.240792065983237</v>
+        <v>0.26407987444485259</v>
       </c>
       <c r="F11" s="1">
-        <v>0.49664424720120298</v>
+        <v>0.63519443408666965</v>
       </c>
       <c r="G11" s="1">
-        <v>1.142028413160443</v>
+        <v>0.74687879058806805</v>
       </c>
       <c r="H11" s="1">
-        <v>0.62360161146702875</v>
+        <v>0.298266603612863</v>
       </c>
       <c r="I11" s="1">
-        <v>0.77327695424107346</v>
+        <v>0.26725935926182642</v>
       </c>
       <c r="J11" s="1">
-        <v>0.43573933911709162</v>
+        <v>0.2467678532431285</v>
       </c>
       <c r="K11" s="1">
-        <v>0.34315312398834569</v>
+        <v>0.48397539656846872</v>
       </c>
       <c r="L11" s="1">
-        <v>4.6137391014979059E-2</v>
+        <v>0.30549700080964831</v>
       </c>
       <c r="M11" s="1">
-        <v>0.20158855524923711</v>
+        <v>0.19180638531777161</v>
       </c>
       <c r="N11" s="1">
-        <v>1.7791970698830369E-2</v>
+        <v>0.109312215536201</v>
       </c>
       <c r="O11" s="1">
-        <v>3.3809022608506738E-3</v>
+        <v>2.5734013445365831E-2</v>
       </c>
       <c r="P11" s="1">
-        <v>4.4134006235306049E-2</v>
+        <v>5.8683110695470192E-2</v>
       </c>
       <c r="Q11" s="1">
-        <v>1.475127833455502E-2</v>
+        <v>1.609536925903458E-2</v>
       </c>
       <c r="R11" s="1">
-        <v>5.7133745622531977E-2</v>
+        <v>9.297455869708178E-2</v>
       </c>
       <c r="S11" s="1">
-        <v>0.39343939816927731</v>
+        <v>0.45728316909694039</v>
       </c>
       <c r="T11" s="1">
-        <v>0.37837084522941178</v>
+        <v>1.4967575901593739</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>1630000</v>
+        <v>98701000</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D12" s="1">
-        <v>1.984126984126984E-2</v>
+        <v>1.517857142857143</v>
       </c>
       <c r="E12" s="1">
-        <v>8.865662670718269E-2</v>
+        <v>2.240792065983237</v>
       </c>
       <c r="F12" s="1">
-        <v>0.36054537118095858</v>
+        <v>0.49664424720120298</v>
       </c>
       <c r="G12" s="1">
-        <v>0.38785038787440962</v>
+        <v>1.142028413160443</v>
       </c>
       <c r="H12" s="1">
-        <v>0.80613921811407796</v>
+        <v>0.62360161146702875</v>
       </c>
       <c r="I12" s="1">
-        <v>0.35663057440145712</v>
+        <v>0.77327695424107346</v>
       </c>
       <c r="J12" s="1">
-        <v>0.26113191932990298</v>
+        <v>0.43573933911709162</v>
       </c>
       <c r="K12" s="1">
-        <v>0.41599223049530593</v>
+        <v>0.34315312398834569</v>
       </c>
       <c r="L12" s="1">
-        <v>0.24266088951191689</v>
+        <v>4.6137391014979059E-2</v>
       </c>
       <c r="M12" s="1">
-        <v>1.3018835161183171</v>
+        <v>0.20158855524923711</v>
       </c>
       <c r="N12" s="1">
-        <v>9.1430995293473677E-2</v>
+        <v>1.7791970698830369E-2</v>
       </c>
       <c r="O12" s="1">
-        <v>3.6958634025637829</v>
+        <v>3.3809022608506738E-3</v>
       </c>
       <c r="P12" s="1">
-        <v>0.245440314635053</v>
+        <v>4.4134006235306049E-2</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.344157798386378</v>
+        <v>1.475127833455502E-2</v>
       </c>
       <c r="R12" s="1">
-        <v>7.9126177024482283E-2</v>
+        <v>5.7133745622531977E-2</v>
       </c>
       <c r="S12" s="1">
-        <v>0.36419268617994649</v>
+        <v>0.39343939816927731</v>
       </c>
       <c r="T12" s="1">
-        <v>0.42192284142394743</v>
+        <v>0.37837084522941178</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1304,250 +1304,250 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>33618000</v>
+        <v>80631000</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1">
         <v>2020</v>
       </c>
       <c r="D14" s="1">
-        <v>-3.8690476190476102E-2</v>
+        <v>-0.1507936507936507</v>
       </c>
       <c r="E14" s="1">
-        <v>0.1462049620997094</v>
+        <v>0.57394062844358362</v>
       </c>
       <c r="F14" s="1">
-        <v>0.28518300304812388</v>
+        <v>0.31057474057497708</v>
       </c>
       <c r="G14" s="1">
-        <v>0.42789322715907868</v>
+        <v>0.50927957290253145</v>
       </c>
       <c r="H14" s="1">
-        <v>0.19716259127607461</v>
+        <v>0.43551755150690291</v>
       </c>
       <c r="I14" s="1">
-        <v>0.29107408981249022</v>
+        <v>0.2063869466118764</v>
       </c>
       <c r="J14" s="1">
-        <v>0.16797025539312729</v>
+        <v>0.2709133120248578</v>
       </c>
       <c r="K14" s="1">
-        <v>0.49854321786986078</v>
+        <v>0.46455163483327938</v>
       </c>
       <c r="L14" s="1">
-        <v>0.24524356753385379</v>
+        <v>0.58516431527275814</v>
       </c>
       <c r="M14" s="1">
-        <v>0.1192684878171988</v>
+        <v>0.31973769185119671</v>
       </c>
       <c r="N14" s="1">
-        <v>0.55442465856059853</v>
+        <v>0.1307274448051399</v>
       </c>
       <c r="O14" s="1">
-        <v>0.16866518481397599</v>
+        <v>6.0725944418234201E-2</v>
       </c>
       <c r="P14" s="1">
-        <v>0.77618153965036052</v>
+        <v>0.1341752298278811</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.2268821755342133</v>
+        <v>5.4254402987072903E-2</v>
       </c>
       <c r="R14" s="1">
-        <v>0.26389548693586701</v>
+        <v>0.19556196837291559</v>
       </c>
       <c r="S14" s="1">
-        <v>0.370466835661934</v>
+        <v>0.47013233777279528</v>
       </c>
       <c r="T14" s="1">
-        <v>0.15159421916886431</v>
+        <v>0.18636201146791381</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>38701000</v>
+        <v>80601000</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D15">
-        <v>-1.881944444444444</v>
-      </c>
-      <c r="E15">
-        <v>2.987858550105186</v>
-      </c>
-      <c r="F15">
-        <v>0.47979443813254291</v>
-      </c>
-      <c r="G15">
-        <v>0.5195607176181013</v>
-      </c>
-      <c r="H15">
-        <v>0.48083072800215049</v>
-      </c>
-      <c r="I15">
-        <v>0.31091662978504381</v>
-      </c>
-      <c r="J15">
-        <v>0.82241975252209554</v>
-      </c>
-      <c r="K15">
-        <v>0.49530592424732922</v>
-      </c>
-      <c r="L15">
-        <v>0.1120047602728976</v>
-      </c>
-      <c r="M15">
-        <v>0.1673034853756703</v>
-      </c>
-      <c r="N15">
-        <v>2.0790190945791851E-2</v>
-      </c>
-      <c r="O15">
-        <v>5.2640678761630853E-4</v>
-      </c>
-      <c r="P15">
-        <v>2.7461335397947258E-2</v>
-      </c>
-      <c r="Q15">
-        <v>3.0575625266523561E-3</v>
-      </c>
-      <c r="R15">
-        <v>0.1702195191187946</v>
-      </c>
-      <c r="S15">
-        <v>0.28618565895428971</v>
-      </c>
-      <c r="T15">
-        <v>0.27986718257288218</v>
+        <v>2020</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-0.4464285714285714</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.2964303603032023</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.2290683390097184</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.44951550597296558</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.23276702096929239</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.38721610165574322</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.19631947243933581</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.48397539656846872</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.34070029532444179</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.29132596128615013</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.1754839847183314</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.1512490155549866</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.10072000711981779</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.13577240605278529</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0.42597215338169692</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0.38781986661702128</v>
+      </c>
+      <c r="T15" s="1">
+        <v>4.0844957725092501E-2</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>20627000</v>
+        <v>38701000</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1">
-        <v>2012</v>
-      </c>
-      <c r="D16" s="1">
-        <v>-4.6626984126984128E-2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.2693625404881958</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.2317968852233199</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.40254362577051228</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.18903379741537291</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.11904849089721189</v>
-      </c>
-      <c r="J16" s="1">
-        <v>4.5216778652228687E-2</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.44027193266429271</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0.2773200698172692</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0.16030042542889339</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0.12795724343120149</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0.1176931894296826</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0.18924045602780359</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>0.19742202970179751</v>
-      </c>
-      <c r="R16" s="1">
-        <v>0.2083455235167237</v>
-      </c>
-      <c r="S16" s="1">
-        <v>0.1814977900221531</v>
-      </c>
-      <c r="T16" s="1">
-        <v>0.12292349274353161</v>
+        <v>2022</v>
+      </c>
+      <c r="D16">
+        <v>-1.881944444444444</v>
+      </c>
+      <c r="E16">
+        <v>2.987858550105186</v>
+      </c>
+      <c r="F16">
+        <v>0.47979443813254291</v>
+      </c>
+      <c r="G16">
+        <v>0.5195607176181013</v>
+      </c>
+      <c r="H16">
+        <v>0.48083072800215049</v>
+      </c>
+      <c r="I16">
+        <v>0.31091662978504381</v>
+      </c>
+      <c r="J16">
+        <v>0.82241975252209554</v>
+      </c>
+      <c r="K16">
+        <v>0.49530592424732922</v>
+      </c>
+      <c r="L16">
+        <v>0.1120047602728976</v>
+      </c>
+      <c r="M16">
+        <v>0.1673034853756703</v>
+      </c>
+      <c r="N16">
+        <v>2.0790190945791851E-2</v>
+      </c>
+      <c r="O16">
+        <v>5.2640678761630853E-4</v>
+      </c>
+      <c r="P16">
+        <v>2.7461335397947258E-2</v>
+      </c>
+      <c r="Q16">
+        <v>3.0575625266523561E-3</v>
+      </c>
+      <c r="R16">
+        <v>0.1702195191187946</v>
+      </c>
+      <c r="S16">
+        <v>0.28618565895428971</v>
+      </c>
+      <c r="T16">
+        <v>0.27986718257288218</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>11710000</v>
+        <v>20627000</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="D17" s="1">
-        <v>0.29761904761904762</v>
+        <v>-4.6626984126984128E-2</v>
       </c>
       <c r="E17" s="1">
-        <v>0.49603633085117038</v>
+        <v>0.2693625404881958</v>
       </c>
       <c r="F17" s="1">
-        <v>0.4803921914504613</v>
+        <v>0.2317968852233199</v>
       </c>
       <c r="G17" s="1">
-        <v>0.67446195458032387</v>
+        <v>0.40254362577051228</v>
       </c>
       <c r="H17" s="1">
-        <v>0.81617276227703461</v>
+        <v>0.18903379741537291</v>
       </c>
       <c r="I17" s="1">
-        <v>0.70416771217697205</v>
+        <v>0.11904849089721189</v>
       </c>
       <c r="J17" s="1">
-        <v>0.56779397983662483</v>
+        <v>4.5216778652228687E-2</v>
       </c>
       <c r="K17" s="1">
-        <v>0.43217869860796371</v>
+        <v>0.44027193266429271</v>
       </c>
       <c r="L17" s="1">
-        <v>0.18432592912931001</v>
+        <v>0.2773200698172692</v>
       </c>
       <c r="M17" s="1">
-        <v>0.1690738406599411</v>
+        <v>0.16030042542889339</v>
       </c>
       <c r="N17" s="1">
-        <v>2.9681448438395701E-2</v>
+        <v>0.12795724343120149</v>
       </c>
       <c r="O17" s="1">
-        <v>6.8280893655534139E-5</v>
+        <v>0.1176931894296826</v>
       </c>
       <c r="P17" s="1">
-        <v>1.3062384580036E-2</v>
+        <v>0.18924045602780359</v>
       </c>
       <c r="Q17" s="1">
-        <v>6.0770196999548002E-3</v>
+        <v>0.19742202970179751</v>
       </c>
       <c r="R17" s="1">
-        <v>6.3640035544066498E-2</v>
+        <v>0.2083455235167237</v>
       </c>
       <c r="S17" s="1">
-        <v>0.56576495966639262</v>
+        <v>0.1814977900221531</v>
       </c>
       <c r="T17" s="1">
-        <v>9.4227873614833799E-2</v>
+        <v>0.12292349274353161</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
